--- a/ШАБЛОН compare_ud.xlsx
+++ b/ШАБЛОН compare_ud.xlsx
@@ -62,7 +62,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,7 +69,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -132,14 +132,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,7 +450,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,33 +468,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ШАБЛОН compare_ud.xlsx
+++ b/ШАБЛОН compare_ud.xlsx
@@ -450,7 +450,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
